--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E86F713-0B27-4530-8744-9E555A770F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286FDD78-1A4C-46C3-AACB-7A9D3F6C7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16515" yWindow="1110" windowWidth="19965" windowHeight="12990" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="16770" yWindow="1410" windowWidth="19965" windowHeight="12990" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,22 @@
       <color rgb="FF3F3F76"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -357,9 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,26 +394,29 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -722,7 +738,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,136 +763,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
-        <v>373</v>
-      </c>
-      <c r="C2" s="7">
-        <v>240</v>
-      </c>
-      <c r="D2" s="7">
-        <v>800</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4050</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
-        <v>-2.6549148427848599</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="I2" s="14">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14">
         <v>0</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="14">
         <v>0.1</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="15">
         <v>1</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <v>1</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="16">
         <v>0.86</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="16">
         <v>0.28299999999999997</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="16">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="16">
         <v>8.6669999999999998</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="16">
         <v>89.86</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="17">
         <v>0.5</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="17">
         <v>1E-3</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="17">
         <v>0.1</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -885,12 +901,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -909,10 +925,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -933,10 +949,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -957,10 +973,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -981,10 +997,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1005,10 +1021,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1029,10 +1045,10 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1053,10 +1069,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1077,10 +1093,10 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1101,10 +1117,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286FDD78-1A4C-46C3-AACB-7A9D3F6C7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290890F3-7480-4D69-A186-1B96CB3FF473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16770" yWindow="1410" windowWidth="19965" windowHeight="12990" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="18435" yWindow="1815" windowWidth="19965" windowHeight="12990" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -400,10 +400,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,7 +735,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,13 +781,13 @@
       <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -852,47 +849,47 @@
       <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="I2" s="14">
-        <v>7</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="I2" s="7">
+        <v>-4.8</v>
+      </c>
+      <c r="J2" s="7">
         <v>0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L2" s="14">
+        <v>1</v>
+      </c>
+      <c r="M2" s="14">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="P2" s="15">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="R2" s="15">
+        <v>89.86</v>
+      </c>
+      <c r="S2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T2" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="U2" s="16">
         <v>0.1</v>
       </c>
-      <c r="L2" s="15">
-        <v>1</v>
-      </c>
-      <c r="M2" s="15">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>0.86</v>
-      </c>
-      <c r="O2" s="16">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="P2" s="16">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>8.6669999999999998</v>
-      </c>
-      <c r="R2" s="16">
-        <v>89.86</v>
-      </c>
-      <c r="S2" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="T2" s="17">
-        <v>1E-3</v>
-      </c>
-      <c r="U2" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290890F3-7480-4D69-A186-1B96CB3FF473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C0426-D179-45FA-AE48-DF68E8FFAFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="1815" windowWidth="19965" windowHeight="12990" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>raio</t>
   </si>
@@ -134,9 +134,6 @@
     <t>perMoon = período [em dias]</t>
   </si>
   <si>
-    <t>interval</t>
-  </si>
-  <si>
     <t>interval = Intervalo de tempo=1. Deseja alterar? 1. SIM | 2. NÃO</t>
   </si>
   <si>
@@ -159,6 +156,15 @@
   </si>
   <si>
     <t>massPlaneta = em relacao à M de jupiter</t>
+  </si>
+  <si>
+    <t>plotAnimacao</t>
+  </si>
+  <si>
+    <t>plotAnimacao = 1 para plotar e 0 para não plotar a animação</t>
+  </si>
+  <si>
+    <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
   </si>
 </sst>
 </file>
@@ -362,7 +368,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -413,6 +419,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,34 +744,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -794,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>21</v>
@@ -803,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>23</v>
@@ -821,13 +833,13 @@
         <v>29</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
         <v>2000</v>
       </c>
@@ -838,7 +850,7 @@
         <v>4050</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -888,10 +900,14 @@
       <c r="U2" s="16">
         <v>0.1</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V2" s="17">
+        <v>8</v>
+      </c>
+      <c r="W2" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -913,9 +929,8 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -937,9 +952,8 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -961,9 +975,8 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -985,9 +998,8 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1009,9 +1021,8 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1033,9 +1044,8 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1057,9 +1067,8 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1081,9 +1090,8 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1105,9 +1113,8 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1119,99 +1126,109 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C0426-D179-45FA-AE48-DF68E8FFAFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9AEC8-A90A-49EE-95F2-4B0BFEFB35D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="21600" yWindow="1440" windowWidth="15510" windowHeight="11385" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>raio</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>timeInterval = Digite o intervalo de tempo em minutos</t>
-  </si>
-  <si>
-    <t>0.89</t>
   </si>
   <si>
     <t>semiEixoRaioStar</t>
@@ -171,6 +168,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,6 +425,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,32 +749,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -806,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>21</v>
@@ -815,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>23</v>
@@ -836,21 +839,21 @@
         <v>34</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="6">
         <v>5000</v>
       </c>
       <c r="D2" s="6">
-        <v>4050</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>2050</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.31</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -859,55 +862,55 @@
         <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
       </c>
       <c r="K2" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="14">
         <v>1</v>
       </c>
       <c r="M2" s="14">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="N2" s="15">
-        <v>0.86</v>
+        <v>1.41</v>
       </c>
       <c r="O2" s="15">
-        <v>0.28299999999999997</v>
+        <v>1.43</v>
       </c>
       <c r="P2" s="15">
-        <v>3.2099999999999997E-2</v>
+        <v>0.51</v>
       </c>
       <c r="Q2" s="15">
         <v>8.6669999999999998</v>
       </c>
-      <c r="R2" s="15">
-        <v>89.86</v>
+      <c r="R2" s="20">
+        <v>89</v>
       </c>
       <c r="S2" s="16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T2" s="16">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="U2" s="16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="17">
-        <v>8</v>
+        <v>2.7071999999999998</v>
       </c>
       <c r="W2" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -930,7 +933,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -953,7 +956,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -976,7 +979,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -999,7 +1002,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1022,7 +1025,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1045,7 +1048,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1068,7 +1071,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1091,7 +1094,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1114,7 +1117,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1126,109 +1129,109 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9AEC8-A90A-49EE-95F2-4B0BFEFB35D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA5E20-C738-464A-A99C-D5AFE023A386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="1440" windowWidth="15510" windowHeight="11385" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
       </c>
       <c r="K2" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="14">
-        <v>5.0999999999999997E-2</v>
+        <v>5.0560000000000001E-2</v>
       </c>
       <c r="N2" s="15">
         <v>1.41</v>
@@ -892,7 +892,7 @@
         <v>8.6669999999999998</v>
       </c>
       <c r="R2" s="20">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S2" s="16">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA5E20-C738-464A-A99C-D5AFE023A386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5730D-0090-48D4-A94B-B652E5BDE3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <v>0.1</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5730D-0090-48D4-A94B-B652E5BDE3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA920E8-8355-4533-A629-EE42782A40D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="7">
         <v>0.1</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA920E8-8355-4533-A629-EE42782A40D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5E70A-82A8-46E1-9798-CED15F83E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>semiEixoRaioStar</t>
   </si>
   <si>
-    <t>semiEixoRaioStar = [em UA]</t>
-  </si>
-  <si>
     <t>massPlaneta</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
+  </si>
+  <si>
+    <t>semiEixoRaioStar = conversão do semi-eixo orbital em relação ao raio da estrela [em UA]</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>23</v>
@@ -839,7 +839,7 @@
         <v>34</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>2050</v>
       </c>
       <c r="E2" s="6">
-        <v>1.31</v>
+        <v>0.21</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -877,22 +877,22 @@
         <v>2</v>
       </c>
       <c r="M2" s="14">
-        <v>5.0560000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N2" s="15">
-        <v>1.41</v>
+        <v>0.18</v>
       </c>
       <c r="O2" s="15">
-        <v>1.43</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="P2" s="15">
-        <v>0.51</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="Q2" s="15">
-        <v>8.6669999999999998</v>
+        <v>1.6279999999999999</v>
       </c>
       <c r="R2" s="20">
-        <v>85</v>
+        <v>86.58</v>
       </c>
       <c r="S2" s="16">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="17">
-        <v>2.7071999999999998</v>
+        <v>1</v>
       </c>
       <c r="W2" s="19">
         <v>0</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -1226,12 +1226,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5E70A-82A8-46E1-9798-CED15F83E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6714D-1AA1-4D75-AF77-5C5E1DC34611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="7485" yWindow="990" windowWidth="17085" windowHeight="11385" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
         <v>5000</v>
       </c>
       <c r="D2" s="6">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E2" s="6">
         <v>0.21</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6714D-1AA1-4D75-AF77-5C5E1DC34611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBE3C4-4613-43F1-B891-CDC64458F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="990" windowWidth="17085" windowHeight="11385" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBE3C4-4613-43F1-B891-CDC64458F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA7AD60-3D7E-4199-B613-636A192A53DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <v>0.1</v>
@@ -892,7 +892,7 @@
         <v>1.6279999999999999</v>
       </c>
       <c r="R2" s="20">
-        <v>86.58</v>
+        <v>86.6</v>
       </c>
       <c r="S2" s="16">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W2" s="19">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA7AD60-3D7E-4199-B613-636A192A53DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6300CFCD-6645-4193-8BC8-5BB4E2FAA0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -168,9 +168,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +424,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,7 +747,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +889,7 @@
         <v>1.6279999999999999</v>
       </c>
       <c r="R2" s="20">
-        <v>86.6</v>
+        <v>89.9</v>
       </c>
       <c r="S2" s="16">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6300CFCD-6645-4193-8BC8-5BB4E2FAA0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F57F74-AC30-497E-AF39-C64D852B0EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -146,6 +146,9 @@
     <t>semiEixoRaioStar</t>
   </si>
   <si>
+    <t>semiEixoRaioStar = [em UA]</t>
+  </si>
+  <si>
     <t>massPlaneta</t>
   </si>
   <si>
@@ -159,15 +162,15 @@
   </si>
   <si>
     <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
-  </si>
-  <si>
-    <t>semiEixoRaioStar = conversão do semi-eixo orbital em relação ao raio da estrela [em UA]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,7 +427,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>23</v>
@@ -836,7 +839,7 @@
         <v>34</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -847,10 +850,10 @@
         <v>5000</v>
       </c>
       <c r="D2" s="6">
-        <v>2100</v>
+        <v>2050</v>
       </c>
       <c r="E2" s="6">
-        <v>0.21</v>
+        <v>1.31</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -868,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="K2" s="7">
-        <v>0.2</v>
+        <v>0.28284271</v>
       </c>
       <c r="L2" s="14">
         <v>2</v>
       </c>
       <c r="M2" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0560000000000001E-2</v>
       </c>
       <c r="N2" s="15">
-        <v>0.18</v>
+        <v>1.41</v>
       </c>
       <c r="O2" s="15">
-        <v>0.10100000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="P2" s="15">
-        <v>5.1999999999999998E-3</v>
+        <v>0.51</v>
       </c>
       <c r="Q2" s="15">
-        <v>1.6279999999999999</v>
+        <v>8.6669999999999998</v>
       </c>
       <c r="R2" s="20">
-        <v>89.9</v>
+        <v>85</v>
       </c>
       <c r="S2" s="16">
         <v>0</v>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="17">
-        <v>0.5</v>
+        <v>2.7071999999999998</v>
       </c>
       <c r="W2" s="19">
         <v>0</v>
@@ -1168,7 +1171,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -1183,7 +1186,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -1223,12 +1226,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F57F74-AC30-497E-AF39-C64D852B0EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9939B0-ECE4-4D9D-B411-D5DEFC178FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -168,8 +160,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -368,7 +362,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,12 +403,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,7 +415,19 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +759,7 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
@@ -838,7 +839,7 @@
       <c r="V1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -864,49 +865,49 @@
       <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
-        <v>0.1</v>
+      <c r="I2" s="18">
+        <v>0.01</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
       </c>
       <c r="K2" s="7">
-        <v>0.28284271</v>
-      </c>
-      <c r="L2" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="20">
         <v>2</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="21">
         <v>5.0560000000000001E-2</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="19">
         <v>1.41</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="19">
         <v>1.43</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="19">
         <v>0.51</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="22">
         <v>8.6669999999999998</v>
       </c>
-      <c r="R2" s="20">
-        <v>85</v>
-      </c>
-      <c r="S2" s="16">
+      <c r="R2" s="19">
+        <v>85.47</v>
+      </c>
+      <c r="S2" s="14">
         <v>0</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="14">
         <v>0</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="14">
         <v>0</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="15">
         <v>2.7071999999999998</v>
       </c>
-      <c r="W2" s="19">
+      <c r="W2" s="17">
         <v>0</v>
       </c>
     </row>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9939B0-ECE4-4D9D-B411-D5DEFC178FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7AE1CB-1E0A-4E89-B6D4-CCA4423A3BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -161,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -418,16 +418,16 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>8.6669999999999998</v>
       </c>
       <c r="R2" s="19">
-        <v>85.47</v>
+        <v>89.999989999999997</v>
       </c>
       <c r="S2" s="14">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7AE1CB-1E0A-4E89-B6D4-CCA4423A3BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C629A2D-6749-4314-861C-A283DBEC746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>8.6669999999999998</v>
       </c>
       <c r="R2" s="19">
-        <v>89.999989999999997</v>
+        <v>87.59</v>
       </c>
       <c r="S2" s="14">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C629A2D-6749-4314-861C-A283DBEC746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3933BD-6EF7-43BA-9CA8-BCF7B31EE86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="18">
         <v>0.01</v>
@@ -893,7 +893,7 @@
         <v>8.6669999999999998</v>
       </c>
       <c r="R2" s="19">
-        <v>87.59</v>
+        <v>84.6</v>
       </c>
       <c r="S2" s="14">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3933BD-6EF7-43BA-9CA8-BCF7B31EE86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB616FC-91F6-4CAA-BD6F-151D8ABFD823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="12750" yWindow="885" windowWidth="22155" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -362,7 +360,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -403,6 +401,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,18 +417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +751,6 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
@@ -839,7 +830,7 @@
       <c r="V1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -854,7 +845,7 @@
         <v>2050</v>
       </c>
       <c r="E2" s="6">
-        <v>1.31</v>
+        <v>0.94</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -863,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>1</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.1</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
@@ -874,40 +865,40 @@
       <c r="K2" s="7">
         <v>0.2</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="14">
         <v>2</v>
       </c>
-      <c r="M2" s="21">
-        <v>5.0560000000000001E-2</v>
-      </c>
-      <c r="N2" s="19">
-        <v>1.41</v>
-      </c>
-      <c r="O2" s="19">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="19">
-        <v>0.51</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>8.6669999999999998</v>
-      </c>
-      <c r="R2" s="19">
-        <v>84.6</v>
-      </c>
-      <c r="S2" s="14">
+      <c r="M2" s="14">
+        <v>0.113</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0.91</v>
+      </c>
+      <c r="O2" s="15">
+        <v>1.24</v>
+      </c>
+      <c r="P2" s="15">
+        <v>0.8306</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>14.6516</v>
+      </c>
+      <c r="R2" s="20">
+        <v>88</v>
+      </c>
+      <c r="S2" s="16">
         <v>0</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="16">
         <v>0</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="16">
         <v>0</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="17">
         <v>2.7071999999999998</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="19">
         <v>0</v>
       </c>
     </row>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB616FC-91F6-4CAA-BD6F-151D8ABFD823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58491384-A38C-484D-97DF-7C6FA2FDF679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="885" windowWidth="22155" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -419,7 +419,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
         <v>2050</v>
       </c>
       <c r="E2" s="6">
-        <v>0.94</v>
+        <v>1.31</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -869,22 +869,22 @@
         <v>2</v>
       </c>
       <c r="M2" s="14">
-        <v>0.113</v>
+        <v>5.0560000000000001E-2</v>
       </c>
       <c r="N2" s="15">
-        <v>0.91</v>
+        <v>1.41</v>
       </c>
       <c r="O2" s="15">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="P2" s="15">
-        <v>0.8306</v>
+        <v>0.51</v>
       </c>
       <c r="Q2" s="15">
-        <v>14.6516</v>
+        <v>8.6669999999999998</v>
       </c>
       <c r="R2" s="20">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S2" s="16">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58491384-A38C-484D-97DF-7C6FA2FDF679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82671C06-5C30-409E-9DCE-059208A75E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="22155" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>raio</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
+  </si>
+  <si>
+    <t>plotGrafico</t>
+  </si>
+  <si>
+    <t>plotGrafico = 1 para plotar e 0 para não plotar o Gráfico</t>
   </si>
 </sst>
 </file>
@@ -739,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,9 +770,10 @@
     <col min="21" max="21" width="10.5703125" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -833,8 +840,11 @@
       <c r="W1" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="6">
         <v>1000</v>
       </c>
@@ -899,10 +909,13 @@
         <v>2.7071999999999998</v>
       </c>
       <c r="W2" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X2" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -925,7 +938,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -948,7 +961,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -971,7 +984,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -994,7 +1007,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1017,7 +1030,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1040,7 +1053,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1063,7 +1076,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1086,7 +1099,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1109,7 +1122,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1121,12 +1134,12 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1223,6 +1236,11 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82671C06-5C30-409E-9DCE-059208A75E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025754C3-FE03-46E9-88CF-6AC2663AE3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="22155" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
         <v>2.7071999999999998</v>
       </c>
       <c r="W2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="19">
         <v>1</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025754C3-FE03-46E9-88CF-6AC2663AE3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27AEEC-43D3-4E93-958A-14939592EA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="22155" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>raio</t>
   </si>
@@ -129,37 +129,34 @@
     <t>interval = Intervalo de tempo=1. Deseja alterar? 1. SIM | 2. NÃO</t>
   </si>
   <si>
+    <t>timeInterval = Digite o intervalo de tempo em minutos</t>
+  </si>
+  <si>
+    <t>semiEixoRaioStar</t>
+  </si>
+  <si>
+    <t>massPlaneta</t>
+  </si>
+  <si>
+    <t>massPlaneta = em relacao à M de jupiter</t>
+  </si>
+  <si>
+    <t>plotAnimacao</t>
+  </si>
+  <si>
+    <t>plotAnimacao = 1 para plotar e 0 para não plotar a animação</t>
+  </si>
+  <si>
+    <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
+  </si>
+  <si>
+    <t>semiEixoRaioStar = conversão do semi-eixo orbital em relação ao raio da estrela [em UA]</t>
+  </si>
+  <si>
+    <t>plotGrafico</t>
+  </si>
+  <si>
     <t>timeInterval</t>
-  </si>
-  <si>
-    <t>timeInterval = Digite o intervalo de tempo em minutos</t>
-  </si>
-  <si>
-    <t>semiEixoRaioStar</t>
-  </si>
-  <si>
-    <t>semiEixoRaioStar = [em UA]</t>
-  </si>
-  <si>
-    <t>massPlaneta</t>
-  </si>
-  <si>
-    <t>massPlaneta = em relacao à M de jupiter</t>
-  </si>
-  <si>
-    <t>plotAnimacao</t>
-  </si>
-  <si>
-    <t>plotAnimacao = 1 para plotar e 0 para não plotar a animação</t>
-  </si>
-  <si>
-    <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
-  </si>
-  <si>
-    <t>plotGrafico</t>
-  </si>
-  <si>
-    <t>plotGrafico = 1 para plotar e 0 para não plotar o Gráfico</t>
   </si>
 </sst>
 </file>
@@ -169,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,32 +199,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -366,7 +339,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,57 +356,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Nota" xfId="3" builtinId="10"/>
+    <cellStyle name="Saída" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -737,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,177 +706,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="X1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B2" s="9">
         <v>1000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>5000</v>
       </c>
-      <c r="D2" s="6">
-        <v>2050</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1.31</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="9">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="9">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <v>-70</v>
+      </c>
+      <c r="J2" s="11">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K2" s="11">
         <v>0.1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="L2" s="12">
+        <v>2</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P2" s="13">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="R2" s="16">
+        <v>86.58</v>
+      </c>
+      <c r="S2" s="14">
         <v>0</v>
       </c>
-      <c r="K2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L2" s="14">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14">
-        <v>5.0560000000000001E-2</v>
-      </c>
-      <c r="N2" s="15">
-        <v>1.41</v>
-      </c>
-      <c r="O2" s="15">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="15">
-        <v>0.51</v>
-      </c>
-      <c r="Q2" s="15">
-        <v>8.6669999999999998</v>
-      </c>
-      <c r="R2" s="20">
-        <v>85</v>
-      </c>
-      <c r="S2" s="16">
+      <c r="T2" s="14">
         <v>0</v>
       </c>
-      <c r="T2" s="16">
+      <c r="U2" s="14">
         <v>0</v>
       </c>
-      <c r="U2" s="16">
-        <v>0</v>
-      </c>
-      <c r="V2" s="17">
-        <v>2.7071999999999998</v>
-      </c>
-      <c r="W2" s="19">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19">
+      <c r="V2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W2" s="15">
+        <v>1</v>
+      </c>
+      <c r="X2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -923,9 +883,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -938,7 +898,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -946,9 +906,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -961,7 +921,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -969,9 +929,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -984,7 +944,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -992,9 +952,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1007,7 +967,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1015,9 +975,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1030,7 +990,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1038,9 +998,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1053,7 +1013,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1061,9 +1021,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1076,7 +1036,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1084,9 +1044,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1099,7 +1059,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1107,9 +1067,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1122,7 +1082,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1130,118 +1090,113 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27AEEC-43D3-4E93-958A-14939592EA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DDF500-B1B1-4DF0-86BA-EFD5B2CE9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="11">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J2" s="11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="11">
         <v>0.1</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DDF500-B1B1-4DF0-86BA-EFD5B2CE9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DEFA49-6B7D-4012-9A9D-1F5D76810E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="11">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0.1</v>
       </c>
       <c r="K2" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="12">
         <v>2</v>
@@ -869,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="W2" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DEFA49-6B7D-4012-9A9D-1F5D76810E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E68CBA-0F10-48C7-BDBD-A67BAD738F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,13 +150,13 @@
     <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
   </si>
   <si>
-    <t>semiEixoRaioStar = conversão do semi-eixo orbital em relação ao raio da estrela [em UA]</t>
-  </si>
-  <si>
     <t>plotGrafico</t>
   </si>
   <si>
     <t>timeInterval</t>
+  </si>
+  <si>
+    <t>semiEixoRaioStar = [em UA]</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,13 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -339,7 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -368,12 +375,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,15 +387,36 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="3" builtinId="10"/>
-    <cellStyle name="Saída" xfId="2" builtinId="21"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,31 +731,32 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -752,59 +775,59 @@
       <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="12" t="s">
         <v>29</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X1" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="9">
         <v>1000</v>
       </c>
@@ -812,10 +835,10 @@
         <v>5000</v>
       </c>
       <c r="D2" s="9">
-        <v>2100</v>
+        <v>2050</v>
       </c>
       <c r="E2" s="9">
-        <v>0.21</v>
+        <v>1.31</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
@@ -823,59 +846,59 @@
       <c r="G2" s="9">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="H2" s="14">
         <v>0</v>
       </c>
-      <c r="J2" s="11">
+      <c r="I2" s="15">
         <v>0.1</v>
       </c>
-      <c r="K2" s="11">
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
         <v>0.2</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="16">
         <v>2</v>
       </c>
-      <c r="M2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="O2" s="13">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="P2" s="13">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="R2" s="16">
-        <v>86.58</v>
-      </c>
-      <c r="S2" s="14">
+      <c r="M2" s="16">
+        <v>5.0560000000000001E-2</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1.41</v>
+      </c>
+      <c r="O2" s="17">
+        <v>1.43</v>
+      </c>
+      <c r="P2" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="R2" s="18">
+        <v>85</v>
+      </c>
+      <c r="S2" s="19">
         <v>0</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="19">
         <v>0</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="19">
         <v>0</v>
       </c>
-      <c r="V2" s="8">
-        <v>1</v>
-      </c>
-      <c r="W2" s="15">
+      <c r="V2" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="W2" s="21">
         <v>0</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -898,7 +921,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -921,7 +944,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -944,7 +967,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -967,7 +990,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -990,7 +1013,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1013,7 +1036,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1036,7 +1059,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1059,7 +1082,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1082,7 +1105,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1094,107 +1117,107 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E68CBA-0F10-48C7-BDBD-A67BAD738F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB02BC-F57A-4869-8644-2D7DFB72C963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>0.2</v>
+        <v>0.2828</v>
       </c>
       <c r="L2" s="16">
         <v>2</v>
@@ -874,7 +874,7 @@
         <v>0.51</v>
       </c>
       <c r="Q2" s="17">
-        <v>8.6669999999999998</v>
+        <v>3.5857199999999998</v>
       </c>
       <c r="R2" s="18">
         <v>85</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="20">
-        <v>2.7</v>
+        <v>3.5857199999999998</v>
       </c>
       <c r="W2" s="21">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB02BC-F57A-4869-8644-2D7DFB72C963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3163B1-9AB6-4903-8609-E6361A666E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +201,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -346,7 +339,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -387,36 +380,21 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Nota" xfId="3" builtinId="10"/>
+    <cellStyle name="Saída" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,32 +709,32 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -827,7 +805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="9">
         <v>1000</v>
       </c>
@@ -858,47 +836,47 @@
       <c r="K2" s="15">
         <v>0.2828</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="10">
         <v>2</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="10">
         <v>5.0560000000000001E-2</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="11">
         <v>1.41</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="11">
         <v>1.43</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="11">
         <v>0.51</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="11">
         <v>3.5857199999999998</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="16">
         <v>85</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="12">
         <v>0</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="12">
         <v>0</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="12">
         <v>0</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="8">
         <v>3.5857199999999998</v>
       </c>
-      <c r="W2" s="21">
+      <c r="W2" s="13">
         <v>0</v>
       </c>
-      <c r="X2" s="21">
+      <c r="X2" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -921,7 +899,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -944,7 +922,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -967,7 +945,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -990,7 +968,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1013,7 +991,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1036,7 +1014,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1059,7 +1037,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1082,7 +1060,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1105,7 +1083,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1117,107 +1095,107 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3163B1-9AB6-4903-8609-E6361A666E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7994B-2036-4878-8ED2-44635B9DE836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="3" builtinId="10"/>
-    <cellStyle name="Saída" xfId="2" builtinId="21"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,32 +709,32 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" customWidth="1"/>
-    <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="9">
         <v>1000</v>
       </c>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="15">
         <v>0.1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -899,7 +899,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -922,7 +922,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -945,7 +945,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -968,7 +968,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -991,7 +991,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1014,7 +1014,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1037,7 +1037,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1060,7 +1060,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1083,7 +1083,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1095,107 +1095,107 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7994B-2036-4878-8ED2-44635B9DE836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6818A84-CE4F-4CD6-94E3-855686D6FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="15">
         <v>0.1</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>0.2828</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="10">
         <v>2</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6818A84-CE4F-4CD6-94E3-855686D6FF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3692E2-B6D9-4502-B4A3-78979DE7E0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="15">
         <v>0.1</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>0.2</v>
+        <v>0.28284271249999998</v>
       </c>
       <c r="L2" s="10">
         <v>2</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3692E2-B6D9-4502-B4A3-78979DE7E0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0894978-F2E7-46F0-856C-CE41B1F42440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>0.28284271249999998</v>
+        <v>0.31622776600000002</v>
       </c>
       <c r="L2" s="10">
         <v>2</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0894978-F2E7-46F0-856C-CE41B1F42440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5F52B-FC39-4328-8D8A-A9ACC8BD7982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="14655" yWindow="1050" windowWidth="22155" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -386,7 +386,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="15">
         <v>0.1</v>
@@ -855,7 +855,7 @@
         <v>3.5857199999999998</v>
       </c>
       <c r="R2" s="16">
-        <v>85</v>
+        <v>83.178899680000001</v>
       </c>
       <c r="S2" s="12">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5F52B-FC39-4328-8D8A-A9ACC8BD7982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E34611D-127C-4645-BF1D-CF49313E8128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="1050" windowWidth="22155" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -386,7 +386,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,7 +709,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
         <v>3.5857199999999998</v>
       </c>
       <c r="R2" s="16">
-        <v>83.178899680000001</v>
+        <v>85</v>
       </c>
       <c r="S2" s="12">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E34611D-127C-4645-BF1D-CF49313E8128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39C501-52CD-482D-8EB3-B217EBE4AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="15">
         <v>0.1</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>0.31622776600000002</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="10">
         <v>2</v>
@@ -855,7 +855,7 @@
         <v>3.5857199999999998</v>
       </c>
       <c r="R2" s="16">
-        <v>85</v>
+        <v>84.004850570000002</v>
       </c>
       <c r="S2" s="12">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39C501-52CD-482D-8EB3-B217EBE4AEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EA6EC2-3BB1-458F-99E2-7376F176ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -709,7 +709,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>0.2</v>
+        <v>0.28284271249999998</v>
       </c>
       <c r="L2" s="10">
         <v>2</v>
@@ -855,7 +855,7 @@
         <v>3.5857199999999998</v>
       </c>
       <c r="R2" s="16">
-        <v>84.004850570000002</v>
+        <v>85</v>
       </c>
       <c r="S2" s="12">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EA6EC2-3BB1-458F-99E2-7376F176ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637AFC1-578A-4798-A7FB-72D01656CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Nota" xfId="3" builtinId="10"/>
+    <cellStyle name="Saída" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,33 +708,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="9">
         <v>1000</v>
       </c>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="15">
-        <v>0.1</v>
+        <v>22</v>
       </c>
       <c r="J2" s="15">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>3.5857199999999998</v>
       </c>
       <c r="R2" s="16">
-        <v>85</v>
+        <v>89.999999999999005</v>
       </c>
       <c r="S2" s="12">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -899,7 +899,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -922,7 +922,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -945,7 +945,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -968,7 +968,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -991,7 +991,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1014,7 +1014,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1037,7 +1037,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1060,7 +1060,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1083,7 +1083,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1095,107 +1095,107 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637AFC1-578A-4798-A7FB-72D01656CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFF41C2-A3BE-4F8A-B152-647873E4E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="3" builtinId="10"/>
-    <cellStyle name="Saída" xfId="2" builtinId="21"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,33 +708,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" customWidth="1"/>
-    <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="9">
         <v>1000</v>
       </c>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="15">
-        <v>22</v>
+        <v>1E-3</v>
       </c>
       <c r="J2" s="15">
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <v>0.28284271249999998</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="10">
         <v>2</v>
@@ -855,7 +855,7 @@
         <v>3.5857199999999998</v>
       </c>
       <c r="R2" s="16">
-        <v>89.999999999999005</v>
+        <v>85</v>
       </c>
       <c r="S2" s="12">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -899,7 +899,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -922,7 +922,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -945,7 +945,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -968,7 +968,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -991,7 +991,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1014,7 +1014,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1037,7 +1037,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1060,7 +1060,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1083,7 +1083,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1095,107 +1095,107 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFF41C2-A3BE-4F8A-B152-647873E4E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB2DFE-E282-4CD9-BA95-717B517FFDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="18375" yWindow="705" windowWidth="18360" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="15">
         <v>1E-3</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB2DFE-E282-4CD9-BA95-717B517FFDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99F9CA-0908-43DE-9EE2-E08539A177EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18375" yWindow="705" windowWidth="18360" windowHeight="13545" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99F9CA-0908-43DE-9EE2-E08539A177EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A3B8C-5F33-4A91-AD1B-31815F63ADE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>raio</t>
   </si>
@@ -150,23 +150,26 @@
     <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
   </si>
   <si>
+    <t>semiEixoRaioStar = conversão do semi-eixo orbital em relação ao raio da estrela [em UA]</t>
+  </si>
+  <si>
     <t>plotGrafico</t>
   </si>
   <si>
     <t>timeInterval</t>
   </si>
   <si>
-    <t>semiEixoRaioStar = [em UA]</t>
+    <t>GJ1132b</t>
+  </si>
+  <si>
+    <t>object</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +205,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +356,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -362,31 +379,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,6 +416,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -706,188 +729,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8">
         <v>1000</v>
       </c>
-      <c r="C2" s="9">
+      <c r="D2" s="8">
         <v>5000</v>
       </c>
-      <c r="D2" s="9">
-        <v>2050</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1.31</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="8">
+        <v>2100</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="I2" s="9">
         <v>0</v>
       </c>
-      <c r="K2" s="15">
-        <v>0.2</v>
+      <c r="J2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
       </c>
       <c r="L2" s="10">
+        <v>0.2828427</v>
+      </c>
+      <c r="M2" s="11">
         <v>2</v>
       </c>
-      <c r="M2" s="10">
-        <v>5.0560000000000001E-2</v>
-      </c>
       <c r="N2" s="11">
-        <v>1.41</v>
-      </c>
-      <c r="O2" s="11">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0.51</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>3.5857199999999998</v>
-      </c>
-      <c r="R2" s="16">
-        <v>85</v>
-      </c>
-      <c r="S2" s="12">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1.6289309999999999</v>
+      </c>
+      <c r="S2" s="17">
+        <v>86.6</v>
+      </c>
+      <c r="T2" s="13">
         <v>0</v>
       </c>
-      <c r="T2" s="12">
+      <c r="U2" s="13">
         <v>0</v>
       </c>
-      <c r="U2" s="12">
+      <c r="V2" s="13">
         <v>0</v>
       </c>
-      <c r="V2" s="8">
-        <v>3.5857199999999998</v>
-      </c>
-      <c r="W2" s="13">
+      <c r="W2" s="14">
+        <v>1.6289309999999999</v>
+      </c>
+      <c r="X2" s="15">
         <v>0</v>
       </c>
-      <c r="X2" s="13">
+      <c r="Y2" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -898,19 +925,19 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -921,19 +948,19 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -944,19 +971,19 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -967,19 +994,19 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -990,19 +1017,19 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1013,19 +1040,19 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1036,19 +1063,19 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1059,19 +1086,19 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1082,25 +1109,26 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1165,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A3B8C-5F33-4A91-AD1B-31815F63ADE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2264FBC7-CD6D-4C99-92E2-0709AEC9D781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -159,17 +159,20 @@
     <t>timeInterval</t>
   </si>
   <si>
-    <t>GJ1132b</t>
-  </si>
-  <si>
     <t>object</t>
+  </si>
+  <si>
+    <t>WASP74b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +212,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -356,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,7 +414,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +766,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -832,7 +866,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8">
         <v>1000</v>
@@ -841,10 +875,10 @@
         <v>5000</v>
       </c>
       <c r="E2" s="8">
-        <v>2100</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.21</v>
+        <v>2050</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1.42</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -852,55 +886,56 @@
       <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="17">
         <v>0</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="18">
         <v>0.1</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="18">
         <v>0</v>
       </c>
-      <c r="L2" s="10">
-        <v>0.2828427</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="L2" s="18">
+        <f>SQRT(0.08)</f>
+        <v>0.28284271247461901</v>
+      </c>
+      <c r="M2" s="19">
         <v>2</v>
       </c>
-      <c r="N2" s="11">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0.18</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="R2" s="12">
-        <v>1.6289309999999999</v>
-      </c>
-      <c r="S2" s="17">
-        <v>86.6</v>
-      </c>
-      <c r="T2" s="13">
+      <c r="N2" s="19">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0.98</v>
+      </c>
+      <c r="P2" s="20">
+        <v>1.36</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="R2" s="20">
+        <v>2.13775</v>
+      </c>
+      <c r="S2" s="24">
+        <v>79.81</v>
+      </c>
+      <c r="T2" s="21">
         <v>0</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="21">
         <v>0</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="21">
         <v>0</v>
       </c>
-      <c r="W2" s="14">
-        <v>1.6289309999999999</v>
-      </c>
-      <c r="X2" s="15">
+      <c r="W2" s="22">
+        <v>3.5857199999999998</v>
+      </c>
+      <c r="X2" s="23">
         <v>0</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2" s="23">
         <v>0</v>
       </c>
     </row>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2264FBC7-CD6D-4C99-92E2-0709AEC9D781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1BAFF9-69A6-4887-BD02-BAD1CBBA67E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <t>object</t>
   </si>
   <si>
-    <t>WASP74b</t>
+    <t>GJ9827d</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,9 +436,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,7 +763,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,8 +874,8 @@
       <c r="E2" s="8">
         <v>2050</v>
       </c>
-      <c r="F2" s="25">
-        <v>1.42</v>
+      <c r="F2" s="8">
+        <v>0.60199999999999998</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -887,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="18">
         <v>0.1</v>
@@ -896,29 +893,28 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>SQRT(0.08)</f>
-        <v>0.28284271247461901</v>
+        <v>0.31622776600000002</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>3.6999999999999998E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.98</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="P2" s="20">
-        <v>1.36</v>
+        <v>0.182</v>
       </c>
       <c r="Q2" s="20">
-        <v>0.72</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="R2" s="20">
-        <v>2.13775</v>
+        <v>6.2014189999999996</v>
       </c>
       <c r="S2" s="24">
-        <v>79.81</v>
+        <v>87.442999999999998</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1BAFF9-69A6-4887-BD02-BAD1CBBA67E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B444633A-A7E7-4B60-A7A2-9413227B1056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +763,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="18">
         <v>0.1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.31622776600000002</v>
+        <v>0.2</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>6.2014189999999996</v>
       </c>
       <c r="S2" s="24">
-        <v>87.442999999999998</v>
+        <v>89.999999999999901</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B444633A-A7E7-4B60-A7A2-9413227B1056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4A1D6-923B-471E-990D-C1E083F9164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +787,7 @@
     <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -861,7 +861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -884,16 +884,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="18">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.2</v>
+        <v>0.28284271249999998</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>6.2014189999999996</v>
       </c>
       <c r="S2" s="24">
-        <v>89.999999999999901</v>
+        <v>89.017641452899696</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -934,8 +934,11 @@
       <c r="Y2" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB2" s="18">
+        <v>0.28284271249999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -958,7 +961,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -981,7 +984,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1004,7 +1007,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1027,7 +1030,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1050,7 +1053,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1073,7 +1076,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1096,7 +1099,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1119,7 +1122,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1142,7 +1145,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1154,12 +1157,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4A1D6-923B-471E-990D-C1E083F9164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D3937-F8BB-4869-9F31-6702AB35E772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -162,15 +162,16 @@
     <t>object</t>
   </si>
   <si>
-    <t>GJ9827d</t>
+    <t>55Cnc_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -366,7 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,6 +437,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +767,7 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +879,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.60199999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -884,37 +888,37 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="18">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.28284271249999998</v>
+        <v>0.2</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>5.5899999999999998E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="P2" s="20">
-        <v>0.182</v>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P2" s="24">
+        <v>0.16192000000000001</v>
       </c>
       <c r="Q2" s="20">
-        <v>7.3899999999999999E-3</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="R2" s="20">
-        <v>6.2014189999999996</v>
-      </c>
-      <c r="S2" s="24">
-        <v>89.017641452899696</v>
+        <v>0.73653900000000005</v>
+      </c>
+      <c r="S2" s="25">
+        <v>74.387874007958203</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -933,9 +937,6 @@
       </c>
       <c r="Y2" s="23">
         <v>0</v>
-      </c>
-      <c r="AB2" s="18">
-        <v>0.28284271249999998</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -960,6 +961,9 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
+      <c r="AB3" s="18">
+        <v>0.28284271249999998</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D3937-F8BB-4869-9F31-6702AB35E772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3330BA-680B-47A5-BF0D-B94A56BF5528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -162,16 +162,15 @@
     <t>object</t>
   </si>
   <si>
-    <t>55Cnc_e</t>
+    <t>WASP74b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.000000000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -436,10 +435,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
@@ -791,7 +790,7 @@
     <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -865,7 +864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -878,8 +877,8 @@
       <c r="E2" s="8">
         <v>2050</v>
       </c>
-      <c r="F2" s="8">
-        <v>0.95</v>
+      <c r="F2" s="24">
+        <v>1.42</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -897,28 +896,29 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
+        <f>SQRT(0.04)</f>
         <v>0.2</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>1.5440000000000001E-2</v>
+        <v>3.705E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="P2" s="24">
-        <v>0.16192000000000001</v>
+        <v>0.98</v>
+      </c>
+      <c r="P2" s="20">
+        <v>1.3</v>
       </c>
       <c r="Q2" s="20">
-        <v>2.5399999999999999E-2</v>
+        <v>0.72</v>
       </c>
       <c r="R2" s="20">
-        <v>0.73653900000000005</v>
+        <v>2.13775</v>
       </c>
       <c r="S2" s="25">
-        <v>74.387874007958203</v>
+        <v>79.81</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -961,11 +961,8 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="AB3" s="18">
-        <v>0.28284271249999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -988,7 +985,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1011,7 +1008,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1034,7 +1031,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1057,7 +1054,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1080,7 +1077,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1103,7 +1100,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1126,7 +1123,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1149,7 +1146,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1161,12 +1158,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\55Cnc_e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3330BA-680B-47A5-BF0D-B94A56BF5528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533BE67-A0EF-455F-AA30-5D7FDC984A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="21540" yWindow="3105" windowWidth="13785" windowHeight="11325" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,15 +162,16 @@
     <t>object</t>
   </si>
   <si>
-    <t>WASP74b</t>
+    <t>55Cnc_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -435,10 +436,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +791,7 @@
     <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -864,7 +865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -877,8 +878,8 @@
       <c r="E2" s="8">
         <v>2050</v>
       </c>
-      <c r="F2" s="24">
-        <v>1.42</v>
+      <c r="F2" s="8">
+        <v>0.95</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -896,29 +897,28 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>SQRT(0.04)</f>
         <v>0.2</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>3.705E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.98</v>
-      </c>
-      <c r="P2" s="20">
-        <v>1.3</v>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P2" s="24">
+        <v>0.16192000000000001</v>
       </c>
       <c r="Q2" s="20">
-        <v>0.72</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="R2" s="20">
-        <v>2.13775</v>
+        <v>0.73653900000000005</v>
       </c>
       <c r="S2" s="25">
-        <v>79.81</v>
+        <v>83.3</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -961,8 +961,11 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB3" s="18">
+        <v>0.28284271249999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -985,7 +988,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1008,7 +1011,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1031,7 +1034,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1054,7 +1057,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1077,7 +1080,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1100,7 +1103,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1123,7 +1126,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1146,7 +1149,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1158,12 +1161,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\55Cnc_e\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533BE67-A0EF-455F-AA30-5D7FDC984A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C453ADE-A31D-4B6B-B8FD-41E8DE4FE980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21540" yWindow="3105" windowWidth="13785" windowHeight="11325" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="16635" yWindow="1500" windowWidth="19155" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="18">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.2</v>
+        <v>0.28284199999999998</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
@@ -918,7 +918,7 @@
         <v>0.73653900000000005</v>
       </c>
       <c r="S2" s="25">
-        <v>83.3</v>
+        <v>87.149388022499096</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C453ADE-A31D-4B6B-B8FD-41E8DE4FE980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444A7D8-EF9F-420E-B5DA-0EAE9BC32C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="1500" windowWidth="19155" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,16 +162,15 @@
     <t>object</t>
   </si>
   <si>
-    <t>55Cnc_e</t>
+    <t>GJ9827d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -367,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,10 +435,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +787,7 @@
     <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -865,7 +861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -879,7 +875,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.95</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -891,34 +887,34 @@
         <v>1</v>
       </c>
       <c r="J2" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.28284199999999998</v>
+        <v>0.28284271249999998</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>1.5440000000000001E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="P2" s="24">
-        <v>0.16192000000000001</v>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="P2" s="20">
+        <v>0.182</v>
       </c>
       <c r="Q2" s="20">
-        <v>2.5399999999999999E-2</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="R2" s="20">
-        <v>0.73653900000000005</v>
-      </c>
-      <c r="S2" s="25">
-        <v>87.149388022499096</v>
+        <v>6.2014189999999996</v>
+      </c>
+      <c r="S2" s="24">
+        <v>89.017641452899696</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -939,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -961,11 +957,8 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="AB3" s="18">
-        <v>0.28284271249999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -988,7 +981,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1011,7 +1004,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1034,7 +1027,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1057,7 +1050,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1080,7 +1073,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1103,7 +1096,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1126,7 +1119,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1149,7 +1142,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1161,12 +1154,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444A7D8-EF9F-420E-B5DA-0EAE9BC32C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1BFF1-7553-4034-995D-DCC462477A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="13200" yWindow="1500" windowWidth="19155" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +763,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="J2" s="18">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.28284271249999998</v>
+        <v>0.2</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>6.2014189999999996</v>
       </c>
       <c r="S2" s="24">
-        <v>89.017641452899696</v>
+        <v>87.442999999999998</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1BFF1-7553-4034-995D-DCC462477A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CFD8B6-6168-4DD4-89FA-A92EB0DA7946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="1500" windowWidth="19155" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.60199999999999998</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.2</v>
+        <v>0.28284271249999998</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
@@ -905,7 +905,7 @@
         <v>0.60599999999999998</v>
       </c>
       <c r="P2" s="20">
-        <v>0.182</v>
+        <v>0.187</v>
       </c>
       <c r="Q2" s="20">
         <v>7.3899999999999999E-3</v>
@@ -914,7 +914,7 @@
         <v>6.2014189999999996</v>
       </c>
       <c r="S2" s="24">
-        <v>87.442999999999998</v>
+        <v>87.808824582594895</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CFD8B6-6168-4DD4-89FA-A92EB0DA7946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAD2C4F-1C51-4D36-AB9F-5B99407963C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -762,32 +773,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -861,7 +872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -887,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="18">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
@@ -914,7 +925,7 @@
         <v>6.2014189999999996</v>
       </c>
       <c r="S2" s="24">
-        <v>87.808824582594895</v>
+        <v>89.999999999999005</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -935,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -958,7 +969,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -981,7 +992,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1004,7 +1015,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1027,7 +1038,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1050,7 +1061,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1073,7 +1084,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1096,7 +1107,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1119,7 +1130,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1142,7 +1153,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1154,107 +1165,107 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAD2C4F-1C51-4D36-AB9F-5B99407963C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2B4843-7FC1-498D-8E99-AEC17007964F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -173,7 +162,7 @@
     <t>object</t>
   </si>
   <si>
-    <t>GJ9827d</t>
+    <t>WASP74b</t>
   </si>
 </sst>
 </file>
@@ -181,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -377,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -444,6 +433,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,32 +765,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.5546875" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -872,7 +864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -885,8 +877,8 @@
       <c r="E2" s="8">
         <v>2050</v>
       </c>
-      <c r="F2" s="8">
-        <v>0.59940000000000004</v>
+      <c r="F2" s="24">
+        <v>1.42</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -895,37 +887,38 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="18">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="18">
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <v>0.28284271249999998</v>
+        <f>SQRT(0.04)</f>
+        <v>0.2</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>5.5899999999999998E-2</v>
+        <v>3.705E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.60599999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="P2" s="20">
-        <v>0.187</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" s="20">
-        <v>7.3899999999999999E-3</v>
+        <v>0.72</v>
       </c>
       <c r="R2" s="20">
-        <v>6.2014189999999996</v>
-      </c>
-      <c r="S2" s="24">
-        <v>89.999999999999005</v>
+        <v>2.13775</v>
+      </c>
+      <c r="S2" s="25">
+        <v>79.81</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -946,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -969,7 +962,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -992,7 +985,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1015,7 +1008,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1038,7 +1031,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1061,7 +1054,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1084,7 +1077,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1107,7 +1100,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1130,7 +1123,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1153,7 +1146,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1165,107 +1158,107 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2B4843-7FC1-498D-8E99-AEC17007964F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3330BA-680B-47A5-BF0D-B94A56BF5528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -438,7 +438,7 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,7 +766,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3330BA-680B-47A5-BF0D-B94A56BF5528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577BD65-A715-4F16-81BC-9CDE797CDAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <t>object</t>
   </si>
   <si>
-    <t>WASP74b</t>
+    <t>GJ9827d</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -435,10 +435,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,8 +874,8 @@
       <c r="E2" s="8">
         <v>2050</v>
       </c>
-      <c r="F2" s="24">
-        <v>1.42</v>
+      <c r="F2" s="8">
+        <v>0.59940000000000004</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -887,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="18">
         <v>0.1</v>
@@ -896,29 +893,29 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>SQRT(0.04)</f>
-        <v>0.2</v>
+        <f>SQRT(0.08)</f>
+        <v>0.28284271247461901</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>3.705E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.98</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="P2" s="20">
-        <v>1.3</v>
+        <v>0.187</v>
       </c>
       <c r="Q2" s="20">
-        <v>0.72</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="R2" s="20">
-        <v>2.13775</v>
-      </c>
-      <c r="S2" s="25">
-        <v>79.81</v>
+        <v>6.2014189999999996</v>
+      </c>
+      <c r="S2" s="24">
+        <v>87.442999999999998</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577BD65-A715-4F16-81BC-9CDE797CDAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E2542-7B11-4AE0-BAA6-18AD2496DF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -162,15 +162,16 @@
     <t>object</t>
   </si>
   <si>
-    <t>GJ9827d</t>
+    <t>55Cnc_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -366,7 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,6 +437,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +791,7 @@
     <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -861,7 +865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -875,7 +879,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.59940000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -893,29 +897,28 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>SQRT(0.08)</f>
-        <v>0.28284271247461901</v>
+        <v>0.28284271249999998</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>5.5899999999999998E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="P2" s="20">
-        <v>0.187</v>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P2" s="24">
+        <v>0.16192000000000001</v>
       </c>
       <c r="Q2" s="20">
-        <v>7.3899999999999999E-3</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="R2" s="20">
-        <v>6.2014189999999996</v>
-      </c>
-      <c r="S2" s="24">
-        <v>87.442999999999998</v>
+        <v>0.73653900000000005</v>
+      </c>
+      <c r="S2" s="25">
+        <v>83.3</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -936,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -958,8 +961,11 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB3" s="18">
+        <v>0.28284271249999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -982,7 +988,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1005,7 +1011,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1028,7 +1034,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1051,7 +1057,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1074,7 +1080,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1097,7 +1103,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1120,7 +1126,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1143,7 +1149,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1155,12 +1161,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577BD65-A715-4F16-81BC-9CDE797CDAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9AB5A-3221-4F28-A76A-EC44F2EB84B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -162,15 +173,16 @@
     <t>object</t>
   </si>
   <si>
-    <t>GJ9827d</t>
+    <t>55Cnc_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -366,7 +378,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,6 +448,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,34 +775,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -861,7 +876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -875,7 +890,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.59940000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -890,32 +905,31 @@
         <v>0.1</v>
       </c>
       <c r="K2" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L2" s="18">
-        <f>SQRT(0.08)</f>
-        <v>0.28284271247461901</v>
+        <v>0.28284271249999998</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>5.5899999999999998E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="P2" s="20">
-        <v>0.187</v>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P2" s="24">
+        <v>0.16192000000000001</v>
       </c>
       <c r="Q2" s="20">
-        <v>7.3899999999999999E-3</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="R2" s="20">
-        <v>6.2014189999999996</v>
-      </c>
-      <c r="S2" s="24">
-        <v>87.442999999999998</v>
+        <v>0.73653900000000005</v>
+      </c>
+      <c r="S2" s="25">
+        <v>83.3</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -936,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -958,8 +972,11 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB3" s="18">
+        <v>0.28284271249999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -982,7 +999,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1005,7 +1022,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1028,7 +1045,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1051,7 +1068,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1074,7 +1091,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1097,7 +1114,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1120,7 +1137,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1143,7 +1160,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1155,107 +1172,107 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9AB5A-3221-4F28-A76A-EC44F2EB84B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D3B01-D3A9-400F-B3CA-3B3300328221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -173,16 +173,15 @@
     <t>object</t>
   </si>
   <si>
-    <t>55Cnc_e</t>
+    <t>GJ9827d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -378,7 +377,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -429,9 +428,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,7 +446,7 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,7 +798,7 @@
     <col min="24" max="24" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -876,7 +872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -890,7 +886,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.95</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -899,58 +895,59 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
+        <v>3</v>
+      </c>
+      <c r="J2" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="24">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24">
+        <f>SQRT(0.1333)</f>
+        <v>0.36510272527057369</v>
+      </c>
+      <c r="M2" s="18">
+        <v>2</v>
+      </c>
+      <c r="N2" s="18">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="P2" s="19">
+        <v>0.187</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>7.3899999999999999E-3</v>
+      </c>
+      <c r="R2" s="19">
+        <v>6.2014189999999996</v>
+      </c>
+      <c r="S2" s="23">
+        <v>87.442999999999998</v>
+      </c>
+      <c r="T2" s="20">
+        <v>0</v>
+      </c>
+      <c r="U2" s="20">
+        <v>0</v>
+      </c>
+      <c r="V2" s="20">
+        <v>0</v>
+      </c>
+      <c r="W2" s="21">
+        <v>3.5857199999999998</v>
+      </c>
+      <c r="X2" s="22">
         <v>1</v>
       </c>
-      <c r="J2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="18">
-        <v>40</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0.28284271249999998</v>
-      </c>
-      <c r="M2" s="19">
-        <v>2</v>
-      </c>
-      <c r="N2" s="19">
-        <v>1.5440000000000001E-2</v>
-      </c>
-      <c r="O2" s="20">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="P2" s="24">
-        <v>0.16192000000000001</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="R2" s="20">
-        <v>0.73653900000000005</v>
-      </c>
-      <c r="S2" s="25">
-        <v>83.3</v>
-      </c>
-      <c r="T2" s="21">
+      <c r="Y2" s="22">
         <v>0</v>
       </c>
-      <c r="U2" s="21">
-        <v>0</v>
-      </c>
-      <c r="V2" s="21">
-        <v>0</v>
-      </c>
-      <c r="W2" s="22">
-        <v>3.5857199999999998</v>
-      </c>
-      <c r="X2" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -958,9 +955,16 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="J3" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="24">
+        <v>-40</v>
+      </c>
+      <c r="L3" s="24">
+        <f>SQRT(0.1333)</f>
+        <v>0.36510272527057369</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -972,11 +976,8 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="AB3" s="18">
-        <v>0.28284271249999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -984,9 +985,16 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <f>SQRT(0.1333)</f>
+        <v>0.36510272527057369</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -999,7 +1007,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1007,9 +1015,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1022,7 +1030,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1045,7 +1053,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1068,7 +1076,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1091,7 +1099,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1114,7 +1122,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1137,7 +1145,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1160,7 +1168,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1172,12 +1180,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D3B01-D3A9-400F-B3CA-3B3300328221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3922C83-D909-4B68-802D-EE3C8E9CE7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
         <v>3.5857199999999998</v>
       </c>
       <c r="X2" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="22">
         <v>0</v>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E2542-7B11-4AE0-BAA6-18AD2496DF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3922C83-D909-4B68-802D-EE3C8E9CE7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -162,16 +173,15 @@
     <t>object</t>
   </si>
   <si>
-    <t>55Cnc_e</t>
+    <t>GJ9827d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -367,7 +377,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -418,9 +428,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,7 +446,7 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,34 +771,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -865,7 +872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -879,7 +886,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.95</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -888,58 +895,59 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>1</v>
-      </c>
-      <c r="J2" s="18">
+        <v>3</v>
+      </c>
+      <c r="J2" s="24">
         <v>0.1</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="24">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24">
+        <f>SQRT(0.1333)</f>
+        <v>0.36510272527057369</v>
+      </c>
+      <c r="M2" s="18">
+        <v>2</v>
+      </c>
+      <c r="N2" s="18">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="P2" s="19">
+        <v>0.187</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>7.3899999999999999E-3</v>
+      </c>
+      <c r="R2" s="19">
+        <v>6.2014189999999996</v>
+      </c>
+      <c r="S2" s="23">
+        <v>87.442999999999998</v>
+      </c>
+      <c r="T2" s="20">
         <v>0</v>
       </c>
-      <c r="L2" s="18">
-        <v>0.28284271249999998</v>
-      </c>
-      <c r="M2" s="19">
-        <v>2</v>
-      </c>
-      <c r="N2" s="19">
-        <v>1.5440000000000001E-2</v>
-      </c>
-      <c r="O2" s="20">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="P2" s="24">
-        <v>0.16192000000000001</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="R2" s="20">
-        <v>0.73653900000000005</v>
-      </c>
-      <c r="S2" s="25">
-        <v>83.3</v>
-      </c>
-      <c r="T2" s="21">
+      <c r="U2" s="20">
         <v>0</v>
       </c>
-      <c r="U2" s="21">
+      <c r="V2" s="20">
         <v>0</v>
       </c>
-      <c r="V2" s="21">
+      <c r="W2" s="21">
+        <v>3.5857199999999998</v>
+      </c>
+      <c r="X2" s="22">
         <v>0</v>
       </c>
-      <c r="W2" s="22">
-        <v>3.5857199999999998</v>
-      </c>
-      <c r="X2" s="23">
+      <c r="Y2" s="22">
         <v>0</v>
       </c>
-      <c r="Y2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -947,9 +955,16 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="J3" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="24">
+        <v>-40</v>
+      </c>
+      <c r="L3" s="24">
+        <f>SQRT(0.1333)</f>
+        <v>0.36510272527057369</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -961,11 +976,8 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="AB3" s="18">
-        <v>0.28284271249999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -973,9 +985,16 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <f>SQRT(0.1333)</f>
+        <v>0.36510272527057369</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -988,7 +1007,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -996,9 +1015,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1011,7 +1030,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1034,7 +1053,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1057,7 +1076,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1080,7 +1099,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1103,7 +1122,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1126,7 +1145,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1149,7 +1168,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1161,107 +1180,107 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3922C83-D909-4B68-802D-EE3C8E9CE7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E8E7F-7114-40DA-9079-0CA5CA3E74AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -428,6 +428,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,9 +447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,55 +895,55 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>3</v>
-      </c>
-      <c r="J2" s="24">
+        <v>1</v>
+      </c>
+      <c r="J2" s="18">
         <v>0.1</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="18">
         <v>40</v>
       </c>
-      <c r="L2" s="24">
-        <f>SQRT(0.1333)</f>
-        <v>0.36510272527057369</v>
-      </c>
-      <c r="M2" s="18">
+      <c r="L2" s="18">
+        <f>SQRT(0.06)</f>
+        <v>0.2449489742783178</v>
+      </c>
+      <c r="M2" s="19">
         <v>2</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="19">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="20">
         <v>0.60599999999999998</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="20">
         <v>0.187</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="20">
         <v>7.3899999999999999E-3</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="20">
         <v>6.2014189999999996</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="24">
         <v>87.442999999999998</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="21">
         <v>0</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="21">
         <v>0</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="21">
         <v>0</v>
       </c>
-      <c r="W2" s="21">
+      <c r="W2" s="22">
         <v>3.5857199999999998</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="23">
         <v>0</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Y2" s="23">
         <v>0</v>
       </c>
     </row>
@@ -955,16 +955,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="24">
-        <v>-40</v>
-      </c>
-      <c r="L3" s="24">
-        <f>SQRT(0.1333)</f>
-        <v>0.36510272527057369</v>
-      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -985,16 +978,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="24">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24">
-        <f>SQRT(0.1333)</f>
-        <v>0.36510272527057369</v>
-      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1015,9 +1001,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E8E7F-7114-40DA-9079-0CA5CA3E74AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7B2144-2003-4F79-805C-6BEB50DB7BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -173,15 +162,16 @@
     <t>object</t>
   </si>
   <si>
-    <t>GJ9827d</t>
+    <t>55Cnc_e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -377,7 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -447,6 +437,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,34 +767,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.5546875" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -872,7 +868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
@@ -886,7 +882,7 @@
         <v>2050</v>
       </c>
       <c r="F2" s="8">
-        <v>0.59940000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -897,36 +893,36 @@
       <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="26">
         <v>0.1</v>
       </c>
-      <c r="K2" s="18">
-        <v>40</v>
-      </c>
-      <c r="L2" s="18">
-        <f>SQRT(0.06)</f>
-        <v>0.2449489742783178</v>
+      <c r="K2" s="26">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26">
+        <f>SQRT(0.1)</f>
+        <v>0.31622776601683794</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>5.5899999999999998E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="O2" s="20">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="P2" s="20">
-        <v>0.187</v>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P2" s="24">
+        <v>0.16192000000000001</v>
       </c>
       <c r="Q2" s="20">
-        <v>7.3899999999999999E-3</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="R2" s="20">
-        <v>6.2014189999999996</v>
-      </c>
-      <c r="S2" s="24">
-        <v>87.442999999999998</v>
+        <v>0.73653900000000005</v>
+      </c>
+      <c r="S2" s="25">
+        <v>83.3</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -947,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -955,9 +951,16 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="J3" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="26">
+        <v>-40</v>
+      </c>
+      <c r="L3" s="26">
+        <f>SQRT(0.1)</f>
+        <v>0.31622776601683794</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -969,8 +972,11 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB3" s="18">
+        <v>0.28284271249999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -978,9 +984,16 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <f>SQRT(0.1)</f>
+        <v>0.31622776601683794</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -993,7 +1006,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1001,9 +1014,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1016,7 +1029,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1024,9 +1037,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1039,7 +1052,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1062,7 +1075,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1085,7 +1098,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1108,7 +1121,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1131,7 +1144,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1154,7 +1167,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1166,107 +1179,107 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\impact parameter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC82E2F-8894-4C1E-8E52-DC0A48232FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C44EF-FEAB-49F0-858D-B9A376D5C57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="3570" yWindow="1110" windowWidth="24300" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,15 +162,16 @@
     <t>object</t>
   </si>
   <si>
-    <t>GJ9827d_Arranz+2018</t>
+    <t>55Cnc_e_Demory+2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -224,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,7 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,6 +443,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +806,7 @@
     <col min="24" max="24" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
@@ -827,7 +846,7 @@
       <c r="N1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="27" t="s">
         <v>21</v>
       </c>
       <c r="P1" s="12" t="s">
@@ -861,21 +880,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="8">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D2" s="8">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="E2" s="8">
-        <v>2050</v>
+        <v>1650</v>
       </c>
       <c r="F2" s="8">
-        <v>0.57099999999999995</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -884,37 +903,38 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0.28284271249999998</v>
+        <v>2</v>
+      </c>
+      <c r="J2" s="26">
+        <v>5</v>
+      </c>
+      <c r="K2" s="26">
+        <v>-30</v>
+      </c>
+      <c r="L2" s="26">
+        <f>SQRT(0.1)</f>
+        <v>0.31622776601683794</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="O2" s="20">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="P2" s="20">
-        <v>0.182</v>
+        <v>1.5350000000000001E-2</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P2" s="24">
+        <v>0.17</v>
       </c>
       <c r="Q2" s="20">
-        <v>7.3899999999999999E-3</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="R2" s="20">
-        <v>6.2014199999999997</v>
-      </c>
-      <c r="S2" s="24">
-        <v>87.45</v>
+        <v>0.73653900000000005</v>
+      </c>
+      <c r="S2" s="25">
+        <v>84.2</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -935,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -943,9 +963,16 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="J3" s="26">
+        <v>5</v>
+      </c>
+      <c r="K3" s="26">
+        <v>30</v>
+      </c>
+      <c r="L3" s="26">
+        <f>SQRT(0.1)</f>
+        <v>0.31622776601683794</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -957,8 +984,11 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB3" s="18">
+        <v>0.28284271249999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -966,9 +996,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -981,7 +1011,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -989,9 +1019,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1004,7 +1034,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1012,9 +1042,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1027,7 +1057,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1050,7 +1080,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1073,7 +1103,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1096,7 +1126,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1119,7 +1149,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1142,7 +1172,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1154,12 +1184,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/Parâmetros.xlsx
+++ b/Parâmetros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C44EF-FEAB-49F0-858D-B9A376D5C57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1806F4C-B674-4343-AFD6-A1DD006CE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1110" windowWidth="24300" windowHeight="13575" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11385" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>timeInterval = Digite o intervalo de tempo em minutos</t>
   </si>
   <si>
-    <t>semiEixoRaioStar</t>
-  </si>
-  <si>
     <t>massPlaneta</t>
   </si>
   <si>
@@ -162,16 +159,18 @@
     <t>object</t>
   </si>
   <si>
-    <t>55Cnc_e_Demory+2016</t>
+    <t>WASP74b_Hellier2015_TL+</t>
+  </si>
+  <si>
+    <t>semiEixoUA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -373,7 +372,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -443,9 +442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -782,7 +778,7 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +804,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -844,16 +840,16 @@
         <v>19</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>21</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>23</v>
@@ -871,30 +867,30 @@
         <v>29</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D2" s="8">
         <v>500</v>
       </c>
       <c r="E2" s="8">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="F2" s="8">
-        <v>0.95299999999999996</v>
+        <v>1.59</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -903,38 +899,38 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>2</v>
-      </c>
-      <c r="J2" s="26">
-        <v>5</v>
-      </c>
-      <c r="K2" s="26">
-        <v>-30</v>
-      </c>
-      <c r="L2" s="26">
-        <f>SQRT(0.1)</f>
-        <v>0.31622776601683794</v>
+        <v>1</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <f>SQRT(0.08)</f>
+        <v>0.28284271247461901</v>
       </c>
       <c r="M2" s="19">
         <v>2</v>
       </c>
       <c r="N2" s="19">
-        <v>1.5350000000000001E-2</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.90500000000000003</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O2" s="27">
+        <v>1.48</v>
       </c>
       <c r="P2" s="24">
-        <v>0.17</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" s="20">
-        <v>2.5399999999999999E-2</v>
+        <v>0.95</v>
       </c>
       <c r="R2" s="20">
-        <v>0.73653900000000005</v>
-      </c>
-      <c r="S2" s="25">
-        <v>84.2</v>
+        <v>2.13775</v>
+      </c>
+      <c r="S2" s="24">
+        <v>79.569999999999993</v>
       </c>
       <c r="T2" s="21">
         <v>0</v>
@@ -946,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="22">
-        <v>3.5857199999999998</v>
+        <v>1</v>
       </c>
       <c r="X2" s="23">
         <v>0</v>
@@ -963,16 +959,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="26">
-        <v>5</v>
-      </c>
-      <c r="K3" s="26">
-        <v>30</v>
-      </c>
-      <c r="L3" s="26">
-        <f>SQRT(0.1)</f>
-        <v>0.31622776601683794</v>
-      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -996,9 +985,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1019,9 +1008,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1042,9 +1031,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1226,7 +1215,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -1241,7 +1230,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -1281,12 +1270,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
